--- a/data/OI_product_map - Copy.xlsx
+++ b/data/OI_product_map - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{640B5B99-A8E7-4D3D-8D25-E222F9EBAF48}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D8BF238-321E-40DF-9276-9DE401C74847}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Today OI" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$K$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="164">
   <si>
     <t>Product Family</t>
   </si>
@@ -370,9 +370,6 @@
     <t>Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures</t>
   </si>
   <si>
-    <t>Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs)</t>
-  </si>
-  <si>
     <t>Marine Fuel 0.5% FOB Rotterdam Barge Swap</t>
   </si>
   <si>
@@ -690,7 +687,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jia Shang" refreshedDate="45890.676370370369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{A8808549-A262-40B2-9E8C-C122B670117C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H63" sheet="Data"/>
+    <worksheetSource ref="A1:H62" sheet="Data"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Product Family" numFmtId="0">
@@ -1959,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,28 +1986,28 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
         <v>143</v>
-      </c>
-      <c r="K1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2061,14 +2058,14 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C63" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
+        <f t="shared" ref="C3:C62" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E63" si="2">_xlfn.CONCAT("'",D3,"',")</f>
+        <f t="shared" ref="E3:E62" si="2">_xlfn.CONCAT("'",D3,"',")</f>
         <v>'GDK',</v>
       </c>
       <c r="F3">
@@ -2235,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -2265,7 +2262,7 @@
         <v>[Light] Ebob</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" t="str">
         <f>_xlfn.CONCAT("'",D8,"',")</f>
@@ -2275,17 +2272,17 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" t="str">
         <f>_xlfn.CONCAT(D8," (",G8, ")")</f>
         <v>AEB (Gasoline Crack - Argus Eurobob Oxy FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -2376,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
@@ -3016,7 +3013,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
@@ -3048,7 +3045,7 @@
         <v>MT</v>
       </c>
       <c r="K27">
-        <v>7.45</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3088,7 +3085,7 @@
         <v>MT</v>
       </c>
       <c r="K28">
-        <v>7.45</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3356,7 +3353,7 @@
         <v>89</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:H63" si="4">_xlfn.CONCAT(D35," (",G35, ")")</f>
+        <f t="shared" ref="H35:H62" si="4">_xlfn.CONCAT(D35," (",G35, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
       <c r="I35" t="str">
@@ -3496,7 +3493,7 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
@@ -3856,28 +3853,28 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] S0.5</v>
+        <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
-        <v>'FDF',</v>
+        <v>'MF3',</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
         <v>107</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="4"/>
-        <v>FDF (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Singapore Gasoil (Platts) Future (in MTs))</v>
+        <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
       </c>
       <c r="I48" t="str">
         <f>VLOOKUP(D48, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3903,21 +3900,21 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
-        <v>'MF3',</v>
+        <v>'MF5',</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>108</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="4"/>
-        <v>MF3 (Marine Fuel 0.5% FOB Rotterdam Barge Swap)</v>
+        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I49" t="str">
         <f>VLOOKUP(D49, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -3943,11 +3940,11 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
-        <v>'MF5',</v>
+        <v>'MFR',</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3957,18 +3954,18 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="4"/>
-        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
+        <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J50" t="str">
         <f>VLOOKUP(D50, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K50">
-        <v>6.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3983,11 +3980,11 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
-        <v>'MFR',</v>
+        <v>'TEO',</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3997,7 +3994,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="4"/>
-        <v>MFR (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in Bbls))</v>
+        <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
       </c>
       <c r="I51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4005,10 +4002,10 @@
       </c>
       <c r="J51" t="str">
         <f>VLOOKUP(D51, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4023,25 +4020,25 @@
         <v>[Heavy] Rdm0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
-        <v>'TEO',</v>
+        <v>'MF7',</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="4"/>
-        <v>TEO (Fuel Oil Crack - Marine Fuel 0.5% FOB Rotterdam Barges (Platts) vs Brent 1st Line Future (in MTs))</v>
+        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
       </c>
       <c r="I52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J52" t="str">
         <f>VLOOKUP(D52, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4056,28 +4053,28 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] Rdm0.5</v>
+        <v>[Heavy] S380</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
-        <v>'MF7',</v>
+        <v>'SYS',</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="4"/>
-        <v>MF7 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs Marine Fuel 0.5% FOB Rotterdam Barges (Platts) Futures)</v>
+        <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
       </c>
       <c r="I53" t="str">
         <f>VLOOKUP(D53, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4103,25 +4100,25 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
-        <v>'SYS',</v>
+        <v>'SPS',</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
         <v>112</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="4"/>
-        <v>SYS (Fuel Oil 380 CST Singapore Swap)</v>
+        <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
       </c>
       <c r="I54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J54" t="str">
         <f>VLOOKUP(D54, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4143,11 +4140,11 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
-        <v>'SPS',</v>
+        <v>'SLS',</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4157,7 +4154,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="4"/>
-        <v>SPS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Brent 1st Line Future)</v>
+        <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
       </c>
       <c r="I55" t="str">
         <f>VLOOKUP(D55, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4183,11 +4180,11 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
-        <v>'SLS',</v>
+        <v>'SJS',</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4197,11 +4194,11 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="4"/>
-        <v>SLS (Fuel Oil Crack - Fuel Oil 380 CST Singapore vs Dubai 1st Line Future)</v>
+        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J56" t="str">
         <f>VLOOKUP(D56, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4223,21 +4220,21 @@
         <v>[Heavy] S380</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
-        <v>'SJS',</v>
+        <v>'MF6',</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="4"/>
-        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
+        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
       </c>
       <c r="I57" t="str">
         <f>VLOOKUP(D57, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4256,28 +4253,28 @@
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>[Heavy] S380</v>
+        <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
-        <v>'MF6',</v>
+        <v>'BAR',</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="4"/>
-        <v>MF6 (Fuel Oil Diff - Marine Fuel 0.5% FOB Singapore (Platts) vs 380 CST Singapore (Platts) Future)</v>
+        <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
       </c>
       <c r="I58" t="str">
         <f>VLOOKUP(D58, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4303,25 +4300,25 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
-        <v>'BAR',</v>
+        <v>'BOB',</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
         <v>116</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="4"/>
-        <v>BAR (Fuel Oil 3.5% FOB Rotterdam Barges Balmo Swap)</v>
+        <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
       </c>
       <c r="I59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
+        <v>$/BBL</v>
       </c>
       <c r="J59" t="str">
         <f>VLOOKUP(D59, Sheet1!$A$4:$B$53, 2, FALSE)</f>
@@ -4343,11 +4340,11 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
-        <v>'BOB',</v>
+        <v>'BOA',</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4357,7 +4354,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="4"/>
-        <v>BOB (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future)</v>
+        <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
       </c>
       <c r="I60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4365,10 +4362,10 @@
       </c>
       <c r="J60" t="str">
         <f>VLOOKUP(D60, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
+        <v>BBL</v>
       </c>
       <c r="K60">
-        <v>6.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4383,32 +4380,32 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
-        <v>'BOA',</v>
+        <v>'SJS',</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="4"/>
-        <v>BOA (Fuel Oil Crack - Fuel Oil 3.5% FOB Rotterdam Barges vs Brent 1st Line Future (in Bbls))</v>
+        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/BBL</v>
+        <v>$/MT</v>
       </c>
       <c r="J61" t="str">
         <f>VLOOKUP(D61, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>BBL</v>
+        <v>MT</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4423,21 +4420,21 @@
         <v>[Heavy] Rdm3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
-        <v>'SJS',</v>
+        <v>'MF5',</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="4"/>
-        <v>SJS (Fuel Oil Diff - Fuel Oil 380 CST Singapore vs. 3.5% FOB Rotterdam Barges Swap)</v>
+        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
       </c>
       <c r="I62" t="str">
         <f>VLOOKUP(D62, Sheet1!$A$4:$D$53, 4, FALSE)</f>
@@ -4451,48 +4448,8 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="1"/>
-        <v>[Heavy] Rdm3.5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="2"/>
-        <v>'MF5',</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>109</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="4"/>
-        <v>MF5 (Marine Fuel 0.5% FOB Rotterdam Barges vs Fuel Oil 3.5% FOB Rotterdam Barges Swap)</v>
-      </c>
-      <c r="I63" t="str">
-        <f>VLOOKUP(D63, Sheet1!$A$4:$D$53, 4, FALSE)</f>
-        <v>$/MT</v>
-      </c>
-      <c r="J63" t="str">
-        <f>VLOOKUP(D63, Sheet1!$A$4:$B$53, 2, FALSE)</f>
-        <v>MT</v>
-      </c>
-      <c r="K63">
-        <v>6.35</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J63" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
+  <autoFilter ref="A1:K62" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4503,7 +4460,7 @@
   <dimension ref="A3:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,27 +4468,28 @@
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4539,13 +4497,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2" t="b">
         <f t="shared" ref="E4:E35" si="0">B4=C4</f>
@@ -4557,13 +4515,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4575,20 +4533,20 @@
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4596,13 +4554,13 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4614,13 +4572,13 @@
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4632,13 +4590,13 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4650,20 +4608,20 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4671,20 +4629,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4692,13 +4650,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4710,13 +4668,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4731,13 +4689,13 @@
         <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4749,13 +4707,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4767,20 +4725,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4788,13 +4746,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4806,13 +4764,13 @@
         <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4824,20 +4782,20 @@
         <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,13 +4803,13 @@
         <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4863,13 +4821,13 @@
         <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4881,13 +4839,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4899,13 +4857,13 @@
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4917,13 +4875,13 @@
         <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4935,13 +4893,13 @@
         <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4953,13 +4911,13 @@
         <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4971,13 +4929,13 @@
         <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -4989,13 +4947,13 @@
         <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5007,13 +4965,13 @@
         <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5025,13 +4983,13 @@
         <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5043,13 +5001,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5061,13 +5019,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5079,13 +5037,13 @@
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5097,20 +5055,20 @@
         <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5118,13 +5076,13 @@
         <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5136,20 +5094,20 @@
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2" t="b">
         <f t="shared" ref="E36:E53" si="1">B36=C36</f>
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5157,13 +5115,13 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5175,13 +5133,13 @@
         <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5193,13 +5151,13 @@
         <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5211,20 +5169,20 @@
         <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5232,13 +5190,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5250,20 +5208,20 @@
         <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E42" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5271,13 +5229,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E43" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5289,13 +5247,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5307,13 +5265,13 @@
         <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5325,20 +5283,20 @@
         <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5346,20 +5304,20 @@
         <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E47" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5367,20 +5325,20 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5388,20 +5346,20 @@
         <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5409,13 +5367,13 @@
         <v>34</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5427,13 +5385,13 @@
         <v>35</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E51" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5445,13 +5403,13 @@
         <v>36</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" s="2" t="b">
         <f t="shared" si="1"/>
@@ -5463,25 +5421,25 @@
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E53" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5515,22 +5473,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
-      </c>
       <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
         <v>123</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5538,13 +5496,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="b">
         <f t="shared" ref="E2:E51" si="0">B2=C2</f>
@@ -5556,13 +5514,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5574,20 +5532,20 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5595,13 +5553,13 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5613,13 +5571,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5631,13 +5589,13 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5649,20 +5607,20 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5670,20 +5628,20 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5691,13 +5649,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5709,13 +5667,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5730,13 +5688,13 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5748,13 +5706,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5766,20 +5724,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -5787,13 +5745,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5805,13 +5763,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5823,20 +5781,20 @@
         <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5844,13 +5802,13 @@
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5862,13 +5820,13 @@
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5880,13 +5838,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5898,13 +5856,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5916,13 +5874,13 @@
         <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5934,13 +5892,13 @@
         <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5952,13 +5910,13 @@
         <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5970,13 +5928,13 @@
         <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -5988,13 +5946,13 @@
         <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6006,13 +5964,13 @@
         <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6024,13 +5982,13 @@
         <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6042,13 +6000,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6060,13 +6018,13 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6078,13 +6036,13 @@
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6096,20 +6054,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6117,13 +6075,13 @@
         <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6135,20 +6093,20 @@
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6156,13 +6114,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6174,13 +6132,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6192,13 +6150,13 @@
         <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6210,20 +6168,20 @@
         <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6231,13 +6189,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6249,20 +6207,20 @@
         <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6270,13 +6228,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6288,13 +6246,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E42" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6306,13 +6264,13 @@
         <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6324,20 +6282,20 @@
         <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6345,20 +6303,20 @@
         <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45" s="2" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6366,20 +6324,20 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6387,20 +6345,20 @@
         <v>15</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6408,13 +6366,13 @@
         <v>34</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E48" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6426,13 +6384,13 @@
         <v>35</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6444,13 +6402,13 @@
         <v>36</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2" t="b">
         <f t="shared" si="0"/>
@@ -6462,20 +6420,20 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6494,7 +6452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DB2451-FAC1-40C5-BCBA-F1F61399D256}">
   <dimension ref="A1:F441"/>
   <sheetViews>
-    <sheetView topLeftCell="A343" workbookViewId="0">
+    <sheetView topLeftCell="A313" workbookViewId="0">
       <selection activeCell="E396" sqref="E396"/>
     </sheetView>
   </sheetViews>
@@ -6506,22 +6464,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6535,10 +6493,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(C2, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C2, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -6557,10 +6515,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(C3, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C3, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -6579,10 +6537,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(C4, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C4, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F4">
@@ -6601,10 +6559,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(C5, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C5, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F5">
@@ -6623,10 +6581,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(C6, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C6, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F6">
@@ -6645,10 +6603,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(C7, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C7, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F7">
@@ -6667,10 +6625,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(C8, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C8, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F8">
@@ -6689,10 +6647,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(C9, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C9, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F9">
@@ -6711,10 +6669,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(C10, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C10, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F10">
@@ -6733,10 +6691,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(C11, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C11, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F11">
@@ -6755,10 +6713,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(C12, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C12, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F12">
@@ -6777,10 +6735,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(C13, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C13, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F13">
@@ -6799,10 +6757,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(C14, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C14, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F14">
@@ -6821,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(C15, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C15, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F15">
@@ -6843,10 +6801,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(C16, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C16, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F16">
@@ -6865,10 +6823,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(C17, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C17, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F17">
@@ -6887,10 +6845,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(C18, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C18, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F18">
@@ -6909,10 +6867,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(C19, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C19, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F19">
@@ -6931,10 +6889,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(C20, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C20, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F20">
@@ -6953,10 +6911,10 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(C21, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C21, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F21">
@@ -6975,10 +6933,10 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(C22, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C22, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F22">
@@ -6997,10 +6955,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(C23, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C23, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F23">
@@ -7019,10 +6977,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP(C24, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C24, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F24">
@@ -7041,10 +6999,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(C25, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C25, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F25">
@@ -7063,10 +7021,10 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(C26, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C26, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F26">
@@ -7085,10 +7043,10 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(C27, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C27, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F27">
@@ -7107,10 +7065,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(C28, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C28, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F28">
@@ -7129,10 +7087,10 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP(C29, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C29, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F29">
@@ -7151,10 +7109,10 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(C30, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C30, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F30">
@@ -7173,10 +7131,10 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(C31, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C31, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F31">
@@ -7195,10 +7153,10 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32">
-        <f>VLOOKUP(C32, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C32, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F32">
@@ -7217,10 +7175,10 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33">
-        <f>VLOOKUP(C33, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C33, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F33">
@@ -7239,10 +7197,10 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP(C34, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C34, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F34">
@@ -7261,10 +7219,10 @@
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35">
-        <f>VLOOKUP(C35, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C35, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F35">
@@ -7283,10 +7241,10 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36">
-        <f>VLOOKUP(C36, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C36, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F36">
@@ -7305,10 +7263,10 @@
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37">
-        <f>VLOOKUP(C37, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C37, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F37">
@@ -7327,10 +7285,10 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38">
-        <f>VLOOKUP(C38, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C38, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F38">
@@ -7349,10 +7307,10 @@
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E39">
-        <f>VLOOKUP(C39, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C39, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F39">
@@ -7371,10 +7329,10 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40">
-        <f>VLOOKUP(C40, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C40, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F40">
@@ -7393,10 +7351,10 @@
         <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41">
-        <f>VLOOKUP(C41, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C41, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F41">
@@ -7415,10 +7373,10 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42">
-        <f>VLOOKUP(C42, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C42, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F42">
@@ -7437,10 +7395,10 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E43">
-        <f>VLOOKUP(C43, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C43, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F43">
@@ -7459,10 +7417,10 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E44">
-        <f>VLOOKUP(C44, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C44, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F44">
@@ -7481,10 +7439,10 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45">
-        <f>VLOOKUP(C45, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C45, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F45">
@@ -7503,10 +7461,10 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46">
-        <f>VLOOKUP(C46, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C46, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F46">
@@ -7525,10 +7483,10 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E47">
-        <f>VLOOKUP(C47, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C47, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F47">
@@ -7547,10 +7505,10 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E48">
-        <f>VLOOKUP(C48, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C48, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F48">
@@ -7569,10 +7527,10 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49">
-        <f>VLOOKUP(C49, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C49, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F49">
@@ -7591,10 +7549,10 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E50">
-        <f>VLOOKUP(C50, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C50, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F50">
@@ -7613,10 +7571,10 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51">
-        <f>VLOOKUP(C51, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C51, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F51">
@@ -7635,10 +7593,10 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E52">
-        <f>VLOOKUP(C52, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C52, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F52">
@@ -7657,10 +7615,10 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E53">
-        <f>VLOOKUP(C53, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C53, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F53">
@@ -7679,10 +7637,10 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E54">
-        <f>VLOOKUP(C54, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C54, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F54">
@@ -7701,10 +7659,10 @@
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E55">
-        <f>VLOOKUP(C55, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C55, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F55">
@@ -7723,10 +7681,10 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56">
-        <f>VLOOKUP(C56, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C56, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F56">
@@ -7745,10 +7703,10 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E57">
-        <f>VLOOKUP(C57, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C57, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F57">
@@ -7767,10 +7725,10 @@
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E58">
-        <f>VLOOKUP(C58, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C58, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F58">
@@ -7789,10 +7747,10 @@
         <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59">
-        <f>VLOOKUP(C59, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C59, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F59">
@@ -7811,10 +7769,10 @@
         <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60">
-        <f>VLOOKUP(C60, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C60, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F60">
@@ -7833,10 +7791,10 @@
         <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61">
-        <f>VLOOKUP(C61, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C61, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F61">
@@ -7855,10 +7813,10 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62">
-        <f>VLOOKUP(C62, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C62, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F62">
@@ -7877,10 +7835,10 @@
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63">
-        <f>VLOOKUP(C63, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C63, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F63">
@@ -7899,10 +7857,10 @@
         <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E64">
-        <f>VLOOKUP(C64, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C64, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F64">
@@ -7921,10 +7879,10 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E65">
-        <f>VLOOKUP(C65, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C65, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F65">
@@ -7943,10 +7901,10 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E66">
-        <f>VLOOKUP(C66, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C66, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F66">
@@ -7965,10 +7923,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E67">
-        <f>VLOOKUP(C67, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C67, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F67">
@@ -7987,10 +7945,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E68">
-        <f>VLOOKUP(C68, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C68, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F68">
@@ -8009,10 +7967,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E69">
-        <f>VLOOKUP(C69, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C69, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F69">
@@ -8031,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E70">
-        <f>VLOOKUP(C70, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C70, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F70">
@@ -8053,10 +8011,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E71">
-        <f>VLOOKUP(C71, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C71, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F71">
@@ -8075,10 +8033,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72">
-        <f>VLOOKUP(C72, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C72, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F72">
@@ -8094,13 +8052,13 @@
         <v>7248</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73">
-        <f>VLOOKUP(C73, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C73, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F73">
@@ -8116,13 +8074,13 @@
         <v>19764</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E74">
-        <f>VLOOKUP(C74, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C74, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F74">
@@ -8138,13 +8096,13 @@
         <v>10383</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E75">
-        <f>VLOOKUP(C75, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C75, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F75">
@@ -8160,13 +8118,13 @@
         <v>13726</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E76">
-        <f>VLOOKUP(C76, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C76, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F76">
@@ -8182,13 +8140,13 @@
         <v>16998</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E77">
-        <f>VLOOKUP(C77, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C77, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F77">
@@ -8204,13 +8162,13 @@
         <v>11540</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E78">
-        <f>VLOOKUP(C78, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C78, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F78">
@@ -8226,13 +8184,13 @@
         <v>15274</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E79">
-        <f>VLOOKUP(C79, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C79, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F79">
@@ -8248,13 +8206,13 @@
         <v>11772</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E80">
-        <f>VLOOKUP(C80, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C80, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F80">
@@ -8273,10 +8231,10 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E81">
-        <f>VLOOKUP(C81, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C81, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F81">
@@ -8295,10 +8253,10 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E82">
-        <f>VLOOKUP(C82, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C82, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F82">
@@ -8317,10 +8275,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E83">
-        <f>VLOOKUP(C83, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C83, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F83">
@@ -8339,10 +8297,10 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E84">
-        <f>VLOOKUP(C84, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C84, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F84">
@@ -8361,10 +8319,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E85">
-        <f>VLOOKUP(C85, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C85, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F85">
@@ -8383,10 +8341,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E86">
-        <f>VLOOKUP(C86, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C86, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F86">
@@ -8405,10 +8363,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E87">
-        <f>VLOOKUP(C87, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C87, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F87">
@@ -8427,10 +8385,10 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E88">
-        <f>VLOOKUP(C88, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C88, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F88">
@@ -8449,10 +8407,10 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E89">
-        <f>VLOOKUP(C89, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C89, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F89">
@@ -8471,10 +8429,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E90">
-        <f>VLOOKUP(C90, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C90, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F90">
@@ -8493,10 +8451,10 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E91">
-        <f>VLOOKUP(C91, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C91, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F91">
@@ -8515,10 +8473,10 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E92">
-        <f>VLOOKUP(C92, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C92, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F92">
@@ -8537,10 +8495,10 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E93">
-        <f>VLOOKUP(C93, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C93, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F93">
@@ -8559,10 +8517,10 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E94">
-        <f>VLOOKUP(C94, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C94, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F94">
@@ -8581,10 +8539,10 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E95">
-        <f>VLOOKUP(C95, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C95, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F95">
@@ -8603,10 +8561,10 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E96">
-        <f>VLOOKUP(C96, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C96, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F96">
@@ -8625,10 +8583,10 @@
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E97">
-        <f>VLOOKUP(C97, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C97, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F97">
@@ -8647,10 +8605,10 @@
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E98">
-        <f>VLOOKUP(C98, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C98, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F98">
@@ -8669,10 +8627,10 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E99">
-        <f>VLOOKUP(C99, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C99, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F99">
@@ -8691,10 +8649,10 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100">
-        <f>VLOOKUP(C100, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C100, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F100">
@@ -8713,10 +8671,10 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E101">
-        <f>VLOOKUP(C101, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C101, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F101">
@@ -8735,10 +8693,10 @@
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E102">
-        <f>VLOOKUP(C102, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C102, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F102">
@@ -8757,10 +8715,10 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103">
-        <f>VLOOKUP(C103, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C103, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F103">
@@ -8779,10 +8737,10 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104">
-        <f>VLOOKUP(C104, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C104, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F104">
@@ -8801,10 +8759,10 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E105">
-        <f>VLOOKUP(C105, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C105, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F105">
@@ -8823,10 +8781,10 @@
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E106">
-        <f>VLOOKUP(C106, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C106, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F106">
@@ -8845,10 +8803,10 @@
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E107">
-        <f>VLOOKUP(C107, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C107, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F107">
@@ -8867,10 +8825,10 @@
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E108">
-        <f>VLOOKUP(C108, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C108, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F108">
@@ -8889,10 +8847,10 @@
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E109">
-        <f>VLOOKUP(C109, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C109, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F109">
@@ -8911,10 +8869,10 @@
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E110">
-        <f>VLOOKUP(C110, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C110, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F110">
@@ -8933,10 +8891,10 @@
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E111">
-        <f>VLOOKUP(C111, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C111, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F111">
@@ -8955,10 +8913,10 @@
         <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E112">
-        <f>VLOOKUP(C112, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C112, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F112">
@@ -8977,10 +8935,10 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E113">
-        <f>VLOOKUP(C113, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C113, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F113">
@@ -8999,10 +8957,10 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E114">
-        <f>VLOOKUP(C114, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C114, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F114">
@@ -9021,10 +8979,10 @@
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E115">
-        <f>VLOOKUP(C115, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C115, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F115">
@@ -9043,10 +9001,10 @@
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E116">
-        <f>VLOOKUP(C116, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C116, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F116">
@@ -9065,10 +9023,10 @@
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E117">
-        <f>VLOOKUP(C117, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C117, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F117">
@@ -9087,10 +9045,10 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E118">
-        <f>VLOOKUP(C118, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C118, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F118">
@@ -9109,10 +9067,10 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E119">
-        <f>VLOOKUP(C119, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C119, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F119">
@@ -9131,10 +9089,10 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E120">
-        <f>VLOOKUP(C120, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C120, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F120">
@@ -9153,10 +9111,10 @@
         <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E121">
-        <f>VLOOKUP(C121, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C121, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F121">
@@ -9175,10 +9133,10 @@
         <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E122">
-        <f>VLOOKUP(C122, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C122, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F122">
@@ -9197,10 +9155,10 @@
         <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E123">
-        <f>VLOOKUP(C123, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C123, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F123">
@@ -9219,10 +9177,10 @@
         <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E124">
-        <f>VLOOKUP(C124, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C124, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F124">
@@ -9241,10 +9199,10 @@
         <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E125">
-        <f>VLOOKUP(C125, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C125, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F125">
@@ -9263,10 +9221,10 @@
         <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E126">
-        <f>VLOOKUP(C126, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C126, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F126">
@@ -9285,10 +9243,10 @@
         <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E127">
-        <f>VLOOKUP(C127, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C127, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F127">
@@ -9307,10 +9265,10 @@
         <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E128">
-        <f>VLOOKUP(C128, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C128, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F128">
@@ -9329,10 +9287,10 @@
         <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E129">
-        <f>VLOOKUP(C129, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C129, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F129">
@@ -9351,10 +9309,10 @@
         <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E130">
-        <f>VLOOKUP(C130, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C130, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F130">
@@ -9373,10 +9331,10 @@
         <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E131">
-        <f>VLOOKUP(C131, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C131, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F131">
@@ -9395,10 +9353,10 @@
         <v>19</v>
       </c>
       <c r="D132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E132">
-        <f>VLOOKUP(C132, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C132, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F132">
@@ -9417,10 +9375,10 @@
         <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E133">
-        <f>VLOOKUP(C133, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C133, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F133">
@@ -9439,10 +9397,10 @@
         <v>19</v>
       </c>
       <c r="D134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E134">
-        <f>VLOOKUP(C134, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C134, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F134">
@@ -9461,10 +9419,10 @@
         <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E135">
-        <f>VLOOKUP(C135, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C135, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F135">
@@ -9483,10 +9441,10 @@
         <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E136">
-        <f>VLOOKUP(C136, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C136, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F136">
@@ -9505,10 +9463,10 @@
         <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E137">
-        <f>VLOOKUP(C137, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C137, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F137">
@@ -9527,10 +9485,10 @@
         <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E138">
-        <f>VLOOKUP(C138, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C138, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F138">
@@ -9549,10 +9507,10 @@
         <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E139">
-        <f>VLOOKUP(C139, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C139, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F139">
@@ -9571,10 +9529,10 @@
         <v>20</v>
       </c>
       <c r="D140" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E140">
-        <f>VLOOKUP(C140, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C140, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F140">
@@ -9593,10 +9551,10 @@
         <v>20</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E141">
-        <f>VLOOKUP(C141, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C141, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F141">
@@ -9615,10 +9573,10 @@
         <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E142">
-        <f>VLOOKUP(C142, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C142, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F142">
@@ -9637,10 +9595,10 @@
         <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E143">
-        <f>VLOOKUP(C143, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C143, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F143">
@@ -9659,10 +9617,10 @@
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E144">
-        <f>VLOOKUP(C144, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C144, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F144">
@@ -9681,10 +9639,10 @@
         <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E145">
-        <f>VLOOKUP(C145, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C145, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F145">
@@ -9703,10 +9661,10 @@
         <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E146">
-        <f>VLOOKUP(C146, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C146, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F146">
@@ -9725,10 +9683,10 @@
         <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E147">
-        <f>VLOOKUP(C147, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C147, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F147">
@@ -9747,10 +9705,10 @@
         <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E148">
-        <f>VLOOKUP(C148, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C148, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F148">
@@ -9769,10 +9727,10 @@
         <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E149">
-        <f>VLOOKUP(C149, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C149, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F149">
@@ -9791,10 +9749,10 @@
         <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E150">
-        <f>VLOOKUP(C150, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C150, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F150">
@@ -9813,10 +9771,10 @@
         <v>21</v>
       </c>
       <c r="D151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E151">
-        <f>VLOOKUP(C151, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C151, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F151">
@@ -9835,10 +9793,10 @@
         <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E152">
-        <f>VLOOKUP(C152, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C152, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F152">
@@ -9857,10 +9815,10 @@
         <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E153">
-        <f>VLOOKUP(C153, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C153, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F153">
@@ -9879,10 +9837,10 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E154">
-        <f>VLOOKUP(C154, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C154, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F154">
@@ -9901,10 +9859,10 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E155">
-        <f>VLOOKUP(C155, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C155, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F155">
@@ -9923,10 +9881,10 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E156">
-        <f>VLOOKUP(C156, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C156, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F156">
@@ -9945,10 +9903,10 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E157">
-        <f>VLOOKUP(C157, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C157, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F157">
@@ -9967,10 +9925,10 @@
         <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E158">
-        <f>VLOOKUP(C158, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C158, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F158">
@@ -9989,10 +9947,10 @@
         <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E159">
-        <f>VLOOKUP(C159, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C159, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F159">
@@ -10011,10 +9969,10 @@
         <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E160">
-        <f>VLOOKUP(C160, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C160, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F160">
@@ -10033,10 +9991,10 @@
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E161">
-        <f>VLOOKUP(C161, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C161, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F161">
@@ -10055,10 +10013,10 @@
         <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E162">
-        <f>VLOOKUP(C162, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C162, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F162">
@@ -10077,10 +10035,10 @@
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E163">
-        <f>VLOOKUP(C163, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C163, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F163">
@@ -10099,10 +10057,10 @@
         <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E164">
-        <f>VLOOKUP(C164, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C164, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F164">
@@ -10121,10 +10079,10 @@
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E165">
-        <f>VLOOKUP(C165, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C165, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F165">
@@ -10143,10 +10101,10 @@
         <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E166">
-        <f>VLOOKUP(C166, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C166, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F166">
@@ -10165,10 +10123,10 @@
         <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E167">
-        <f>VLOOKUP(C167, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C167, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F167">
@@ -10187,10 +10145,10 @@
         <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E168">
-        <f>VLOOKUP(C168, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C168, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F168">
@@ -10209,15 +10167,15 @@
         <v>33</v>
       </c>
       <c r="D169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E169">
-        <f>VLOOKUP(C169, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C169, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F169">
         <f t="shared" si="2"/>
-        <v>715386</v>
+        <v>71538</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -10231,15 +10189,15 @@
         <v>33</v>
       </c>
       <c r="D170" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E170">
-        <f>VLOOKUP(C170, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C170, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F170">
         <f t="shared" si="2"/>
-        <v>861659</v>
+        <v>86165</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -10253,15 +10211,15 @@
         <v>33</v>
       </c>
       <c r="D171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E171">
-        <f>VLOOKUP(C171, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C171, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F171">
         <f t="shared" si="2"/>
-        <v>480592</v>
+        <v>48059</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -10275,15 +10233,15 @@
         <v>33</v>
       </c>
       <c r="D172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E172">
-        <f>VLOOKUP(C172, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C172, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F172">
         <f t="shared" si="2"/>
-        <v>656948</v>
+        <v>65694</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -10297,15 +10255,15 @@
         <v>33</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E173">
-        <f>VLOOKUP(C173, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C173, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F173">
         <f t="shared" si="2"/>
-        <v>747808</v>
+        <v>74780</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -10319,15 +10277,15 @@
         <v>33</v>
       </c>
       <c r="D174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E174">
-        <f>VLOOKUP(C174, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C174, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F174">
         <f t="shared" si="2"/>
-        <v>1426905</v>
+        <v>142690</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -10341,15 +10299,15 @@
         <v>33</v>
       </c>
       <c r="D175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E175">
-        <f>VLOOKUP(C175, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C175, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F175">
         <f t="shared" si="2"/>
-        <v>725801</v>
+        <v>72580</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -10363,15 +10321,15 @@
         <v>33</v>
       </c>
       <c r="D176" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E176">
-        <f>VLOOKUP(C176, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C176, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F176">
         <f t="shared" si="2"/>
-        <v>592185</v>
+        <v>59218</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -10385,15 +10343,15 @@
         <v>34</v>
       </c>
       <c r="D177" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E177">
-        <f>VLOOKUP(C177, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C177, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F177">
         <f t="shared" si="2"/>
-        <v>144641</v>
+        <v>14464</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -10407,15 +10365,15 @@
         <v>34</v>
       </c>
       <c r="D178" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E178">
-        <f>VLOOKUP(C178, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C178, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F178">
         <f t="shared" si="2"/>
-        <v>153745</v>
+        <v>15374</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -10429,15 +10387,15 @@
         <v>34</v>
       </c>
       <c r="D179" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E179">
-        <f>VLOOKUP(C179, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C179, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F179">
         <f t="shared" si="2"/>
-        <v>111057</v>
+        <v>11105</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -10451,15 +10409,15 @@
         <v>34</v>
       </c>
       <c r="D180" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E180">
-        <f>VLOOKUP(C180, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C180, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F180">
         <f t="shared" si="2"/>
-        <v>102810</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -10473,15 +10431,15 @@
         <v>34</v>
       </c>
       <c r="D181" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E181">
-        <f>VLOOKUP(C181, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C181, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F181">
         <f t="shared" si="2"/>
-        <v>164384</v>
+        <v>16438</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -10495,15 +10453,15 @@
         <v>34</v>
       </c>
       <c r="D182" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E182">
-        <f>VLOOKUP(C182, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C182, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F182">
         <f t="shared" si="2"/>
-        <v>167274</v>
+        <v>16727</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -10517,15 +10475,15 @@
         <v>34</v>
       </c>
       <c r="D183" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E183">
-        <f>VLOOKUP(C183, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C183, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F183">
         <f t="shared" si="2"/>
-        <v>161530</v>
+        <v>16153</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -10539,15 +10497,15 @@
         <v>34</v>
       </c>
       <c r="D184" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E184">
-        <f>VLOOKUP(C184, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C184, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F184">
         <f t="shared" si="2"/>
-        <v>173138</v>
+        <v>17313</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -10561,10 +10519,10 @@
         <v>35</v>
       </c>
       <c r="D185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E185">
-        <f>VLOOKUP(C185, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C185, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F185">
@@ -10583,10 +10541,10 @@
         <v>35</v>
       </c>
       <c r="D186" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E186">
-        <f>VLOOKUP(C186, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C186, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F186">
@@ -10605,10 +10563,10 @@
         <v>35</v>
       </c>
       <c r="D187" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E187">
-        <f>VLOOKUP(C187, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C187, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F187">
@@ -10627,10 +10585,10 @@
         <v>35</v>
       </c>
       <c r="D188" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E188">
-        <f>VLOOKUP(C188, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C188, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F188">
@@ -10649,10 +10607,10 @@
         <v>35</v>
       </c>
       <c r="D189" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E189">
-        <f>VLOOKUP(C189, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C189, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F189">
@@ -10671,10 +10629,10 @@
         <v>35</v>
       </c>
       <c r="D190" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E190">
-        <f>VLOOKUP(C190, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C190, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F190">
@@ -10693,10 +10651,10 @@
         <v>35</v>
       </c>
       <c r="D191" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E191">
-        <f>VLOOKUP(C191, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C191, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F191">
@@ -10715,10 +10673,10 @@
         <v>35</v>
       </c>
       <c r="D192" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E192">
-        <f>VLOOKUP(C192, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C192, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F192">
@@ -10737,10 +10695,10 @@
         <v>36</v>
       </c>
       <c r="D193" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E193">
-        <f>VLOOKUP(C193, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C193, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F193">
@@ -10759,10 +10717,10 @@
         <v>36</v>
       </c>
       <c r="D194" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E194">
-        <f>VLOOKUP(C194, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C194, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F194">
@@ -10781,10 +10739,10 @@
         <v>36</v>
       </c>
       <c r="D195" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E195">
-        <f>VLOOKUP(C195, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C195, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F195">
@@ -10803,10 +10761,10 @@
         <v>36</v>
       </c>
       <c r="D196" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E196">
-        <f>VLOOKUP(C196, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C196, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F196">
@@ -10825,10 +10783,10 @@
         <v>36</v>
       </c>
       <c r="D197" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E197">
-        <f>VLOOKUP(C197, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C197, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F197">
@@ -10847,10 +10805,10 @@
         <v>36</v>
       </c>
       <c r="D198" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E198">
-        <f>VLOOKUP(C198, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C198, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F198">
@@ -10869,10 +10827,10 @@
         <v>36</v>
       </c>
       <c r="D199" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E199">
-        <f>VLOOKUP(C199, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C199, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F199">
@@ -10891,10 +10849,10 @@
         <v>36</v>
       </c>
       <c r="D200" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E200">
-        <f>VLOOKUP(C200, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C200, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F200">
@@ -10913,10 +10871,10 @@
         <v>37</v>
       </c>
       <c r="D201" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E201">
-        <f>VLOOKUP(C201, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C201, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F201">
@@ -10935,10 +10893,10 @@
         <v>37</v>
       </c>
       <c r="D202" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E202">
-        <f>VLOOKUP(C202, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C202, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F202">
@@ -10957,10 +10915,10 @@
         <v>37</v>
       </c>
       <c r="D203" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E203">
-        <f>VLOOKUP(C203, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C203, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F203">
@@ -10979,10 +10937,10 @@
         <v>37</v>
       </c>
       <c r="D204" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E204">
-        <f>VLOOKUP(C204, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C204, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F204">
@@ -11001,10 +10959,10 @@
         <v>37</v>
       </c>
       <c r="D205" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E205">
-        <f>VLOOKUP(C205, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C205, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F205">
@@ -11023,10 +10981,10 @@
         <v>37</v>
       </c>
       <c r="D206" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E206">
-        <f>VLOOKUP(C206, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C206, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F206">
@@ -11045,10 +11003,10 @@
         <v>37</v>
       </c>
       <c r="D207" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E207">
-        <f>VLOOKUP(C207, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C207, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F207">
@@ -11067,10 +11025,10 @@
         <v>37</v>
       </c>
       <c r="D208" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E208">
-        <f>VLOOKUP(C208, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C208, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F208">
@@ -11089,10 +11047,10 @@
         <v>39</v>
       </c>
       <c r="D209" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E209">
-        <f>VLOOKUP(C209, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C209, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F209">
@@ -11111,10 +11069,10 @@
         <v>39</v>
       </c>
       <c r="D210" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E210">
-        <f>VLOOKUP(C210, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C210, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F210">
@@ -11133,10 +11091,10 @@
         <v>39</v>
       </c>
       <c r="D211" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E211">
-        <f>VLOOKUP(C211, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C211, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F211">
@@ -11155,10 +11113,10 @@
         <v>39</v>
       </c>
       <c r="D212" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E212">
-        <f>VLOOKUP(C212, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C212, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F212">
@@ -11177,10 +11135,10 @@
         <v>39</v>
       </c>
       <c r="D213" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E213">
-        <f>VLOOKUP(C213, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C213, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F213">
@@ -11199,10 +11157,10 @@
         <v>39</v>
       </c>
       <c r="D214" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E214">
-        <f>VLOOKUP(C214, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C214, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F214">
@@ -11221,10 +11179,10 @@
         <v>39</v>
       </c>
       <c r="D215" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E215">
-        <f>VLOOKUP(C215, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C215, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F215">
@@ -11243,10 +11201,10 @@
         <v>39</v>
       </c>
       <c r="D216" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E216">
-        <f>VLOOKUP(C216, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C216, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F216">
@@ -11265,10 +11223,10 @@
         <v>40</v>
       </c>
       <c r="D217" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E217">
-        <f>VLOOKUP(C217, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C217, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F217">
@@ -11287,10 +11245,10 @@
         <v>40</v>
       </c>
       <c r="D218" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E218">
-        <f>VLOOKUP(C218, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C218, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F218">
@@ -11309,10 +11267,10 @@
         <v>40</v>
       </c>
       <c r="D219" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E219">
-        <f>VLOOKUP(C219, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C219, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F219">
@@ -11331,10 +11289,10 @@
         <v>40</v>
       </c>
       <c r="D220" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E220">
-        <f>VLOOKUP(C220, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C220, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F220">
@@ -11353,10 +11311,10 @@
         <v>40</v>
       </c>
       <c r="D221" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E221">
-        <f>VLOOKUP(C221, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C221, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F221">
@@ -11375,10 +11333,10 @@
         <v>40</v>
       </c>
       <c r="D222" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E222">
-        <f>VLOOKUP(C222, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C222, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F222">
@@ -11397,10 +11355,10 @@
         <v>40</v>
       </c>
       <c r="D223" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E223">
-        <f>VLOOKUP(C223, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C223, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F223">
@@ -11419,10 +11377,10 @@
         <v>40</v>
       </c>
       <c r="D224" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E224">
-        <f>VLOOKUP(C224, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C224, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F224">
@@ -11441,10 +11399,10 @@
         <v>42</v>
       </c>
       <c r="D225" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E225">
-        <f>VLOOKUP(C225, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C225, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F225">
@@ -11463,10 +11421,10 @@
         <v>42</v>
       </c>
       <c r="D226" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E226">
-        <f>VLOOKUP(C226, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C226, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F226">
@@ -11485,10 +11443,10 @@
         <v>42</v>
       </c>
       <c r="D227" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E227">
-        <f>VLOOKUP(C227, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C227, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F227">
@@ -11507,10 +11465,10 @@
         <v>42</v>
       </c>
       <c r="D228" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E228">
-        <f>VLOOKUP(C228, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C228, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F228">
@@ -11529,10 +11487,10 @@
         <v>42</v>
       </c>
       <c r="D229" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E229">
-        <f>VLOOKUP(C229, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C229, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F229">
@@ -11551,10 +11509,10 @@
         <v>42</v>
       </c>
       <c r="D230" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E230">
-        <f>VLOOKUP(C230, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C230, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F230">
@@ -11573,10 +11531,10 @@
         <v>42</v>
       </c>
       <c r="D231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E231">
-        <f>VLOOKUP(C231, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C231, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F231">
@@ -11595,10 +11553,10 @@
         <v>42</v>
       </c>
       <c r="D232" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E232">
-        <f>VLOOKUP(C232, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C232, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F232">
@@ -11617,10 +11575,10 @@
         <v>43</v>
       </c>
       <c r="D233" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E233">
-        <f>VLOOKUP(C233, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C233, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F233">
@@ -11639,10 +11597,10 @@
         <v>43</v>
       </c>
       <c r="D234" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E234">
-        <f>VLOOKUP(C234, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C234, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F234">
@@ -11661,10 +11619,10 @@
         <v>43</v>
       </c>
       <c r="D235" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E235">
-        <f>VLOOKUP(C235, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C235, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F235">
@@ -11683,10 +11641,10 @@
         <v>43</v>
       </c>
       <c r="D236" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E236">
-        <f>VLOOKUP(C236, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C236, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F236">
@@ -11705,10 +11663,10 @@
         <v>43</v>
       </c>
       <c r="D237" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E237">
-        <f>VLOOKUP(C237, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C237, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F237">
@@ -11727,10 +11685,10 @@
         <v>43</v>
       </c>
       <c r="D238" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E238">
-        <f>VLOOKUP(C238, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C238, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F238">
@@ -11749,10 +11707,10 @@
         <v>43</v>
       </c>
       <c r="D239" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E239">
-        <f>VLOOKUP(C239, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C239, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F239">
@@ -11771,10 +11729,10 @@
         <v>43</v>
       </c>
       <c r="D240" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E240">
-        <f>VLOOKUP(C240, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C240, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F240">
@@ -11793,10 +11751,10 @@
         <v>46</v>
       </c>
       <c r="D241" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E241">
-        <f>VLOOKUP(C241, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C241, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F241">
@@ -11815,10 +11773,10 @@
         <v>46</v>
       </c>
       <c r="D242" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E242">
-        <f>VLOOKUP(C242, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C242, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F242">
@@ -11837,10 +11795,10 @@
         <v>46</v>
       </c>
       <c r="D243" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E243">
-        <f>VLOOKUP(C243, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C243, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F243">
@@ -11859,10 +11817,10 @@
         <v>46</v>
       </c>
       <c r="D244" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E244">
-        <f>VLOOKUP(C244, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C244, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F244">
@@ -11881,10 +11839,10 @@
         <v>46</v>
       </c>
       <c r="D245" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E245">
-        <f>VLOOKUP(C245, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C245, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F245">
@@ -11903,10 +11861,10 @@
         <v>46</v>
       </c>
       <c r="D246" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E246">
-        <f>VLOOKUP(C246, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C246, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F246">
@@ -11925,10 +11883,10 @@
         <v>46</v>
       </c>
       <c r="D247" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E247">
-        <f>VLOOKUP(C247, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C247, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F247">
@@ -11947,10 +11905,10 @@
         <v>46</v>
       </c>
       <c r="D248" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E248">
-        <f>VLOOKUP(C248, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C248, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F248">
@@ -11969,10 +11927,10 @@
         <v>47</v>
       </c>
       <c r="D249" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E249">
-        <f>VLOOKUP(C249, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C249, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F249">
@@ -11991,10 +11949,10 @@
         <v>47</v>
       </c>
       <c r="D250" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E250">
-        <f>VLOOKUP(C250, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C250, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F250">
@@ -12013,10 +11971,10 @@
         <v>47</v>
       </c>
       <c r="D251" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E251">
-        <f>VLOOKUP(C251, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C251, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F251">
@@ -12035,10 +11993,10 @@
         <v>47</v>
       </c>
       <c r="D252" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E252">
-        <f>VLOOKUP(C252, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C252, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F252">
@@ -12057,10 +12015,10 @@
         <v>47</v>
       </c>
       <c r="D253" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E253">
-        <f>VLOOKUP(C253, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C253, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F253">
@@ -12079,10 +12037,10 @@
         <v>47</v>
       </c>
       <c r="D254" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E254">
-        <f>VLOOKUP(C254, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C254, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F254">
@@ -12101,10 +12059,10 @@
         <v>47</v>
       </c>
       <c r="D255" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E255">
-        <f>VLOOKUP(C255, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C255, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F255">
@@ -12123,10 +12081,10 @@
         <v>47</v>
       </c>
       <c r="D256" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E256">
-        <f>VLOOKUP(C256, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C256, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F256">
@@ -12145,10 +12103,10 @@
         <v>48</v>
       </c>
       <c r="D257" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E257">
-        <f>VLOOKUP(C257, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C257, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F257">
@@ -12167,10 +12125,10 @@
         <v>48</v>
       </c>
       <c r="D258" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E258">
-        <f>VLOOKUP(C258, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C258, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F258">
@@ -12189,10 +12147,10 @@
         <v>48</v>
       </c>
       <c r="D259" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E259">
-        <f>VLOOKUP(C259, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C259, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F259">
@@ -12211,10 +12169,10 @@
         <v>48</v>
       </c>
       <c r="D260" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E260">
-        <f>VLOOKUP(C260, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C260, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F260">
@@ -12233,10 +12191,10 @@
         <v>48</v>
       </c>
       <c r="D261" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E261">
-        <f>VLOOKUP(C261, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C261, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F261">
@@ -12255,10 +12213,10 @@
         <v>48</v>
       </c>
       <c r="D262" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E262">
-        <f>VLOOKUP(C262, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C262, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F262">
@@ -12277,10 +12235,10 @@
         <v>48</v>
       </c>
       <c r="D263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E263">
-        <f>VLOOKUP(C263, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C263, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F263">
@@ -12299,10 +12257,10 @@
         <v>48</v>
       </c>
       <c r="D264" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E264">
-        <f>VLOOKUP(C264, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C264, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F264">
@@ -12321,10 +12279,10 @@
         <v>51</v>
       </c>
       <c r="D265" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E265">
-        <f>VLOOKUP(C265, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C265, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F265">
@@ -12343,10 +12301,10 @@
         <v>51</v>
       </c>
       <c r="D266" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E266">
-        <f>VLOOKUP(C266, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C266, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F266">
@@ -12365,10 +12323,10 @@
         <v>51</v>
       </c>
       <c r="D267" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E267">
-        <f>VLOOKUP(C267, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C267, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F267">
@@ -12387,10 +12345,10 @@
         <v>51</v>
       </c>
       <c r="D268" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E268">
-        <f>VLOOKUP(C268, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C268, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F268">
@@ -12409,10 +12367,10 @@
         <v>51</v>
       </c>
       <c r="D269" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E269">
-        <f>VLOOKUP(C269, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C269, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F269">
@@ -12431,10 +12389,10 @@
         <v>51</v>
       </c>
       <c r="D270" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E270">
-        <f>VLOOKUP(C270, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C270, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F270">
@@ -12453,10 +12411,10 @@
         <v>51</v>
       </c>
       <c r="D271" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E271">
-        <f>VLOOKUP(C271, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C271, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F271">
@@ -12475,10 +12433,10 @@
         <v>51</v>
       </c>
       <c r="D272" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E272">
-        <f>VLOOKUP(C272, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C272, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F272">
@@ -12497,10 +12455,10 @@
         <v>52</v>
       </c>
       <c r="D273" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E273">
-        <f>VLOOKUP(C273, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C273, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F273">
@@ -12519,10 +12477,10 @@
         <v>52</v>
       </c>
       <c r="D274" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E274">
-        <f>VLOOKUP(C274, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C274, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F274">
@@ -12541,10 +12499,10 @@
         <v>52</v>
       </c>
       <c r="D275" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E275">
-        <f>VLOOKUP(C275, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C275, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F275">
@@ -12563,10 +12521,10 @@
         <v>52</v>
       </c>
       <c r="D276" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E276">
-        <f>VLOOKUP(C276, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C276, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F276">
@@ -12585,10 +12543,10 @@
         <v>52</v>
       </c>
       <c r="D277" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E277">
-        <f>VLOOKUP(C277, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C277, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F277">
@@ -12607,10 +12565,10 @@
         <v>52</v>
       </c>
       <c r="D278" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E278">
-        <f>VLOOKUP(C278, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C278, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F278">
@@ -12629,10 +12587,10 @@
         <v>53</v>
       </c>
       <c r="D279" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E279">
-        <f>VLOOKUP(C279, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C279, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F279">
@@ -12651,10 +12609,10 @@
         <v>53</v>
       </c>
       <c r="D280" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E280">
-        <f>VLOOKUP(C280, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C280, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F280">
@@ -12673,10 +12631,10 @@
         <v>53</v>
       </c>
       <c r="D281" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E281">
-        <f>VLOOKUP(C281, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C281, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F281">
@@ -12695,10 +12653,10 @@
         <v>53</v>
       </c>
       <c r="D282" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E282">
-        <f>VLOOKUP(C282, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C282, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F282">
@@ -12717,10 +12675,10 @@
         <v>53</v>
       </c>
       <c r="D283" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E283">
-        <f>VLOOKUP(C283, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C283, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F283">
@@ -12739,10 +12697,10 @@
         <v>53</v>
       </c>
       <c r="D284" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E284">
-        <f>VLOOKUP(C284, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C284, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F284">
@@ -12761,10 +12719,10 @@
         <v>54</v>
       </c>
       <c r="D285" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E285">
-        <f>VLOOKUP(C285, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C285, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F285">
@@ -12783,10 +12741,10 @@
         <v>54</v>
       </c>
       <c r="D286" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E286">
-        <f>VLOOKUP(C286, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C286, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F286">
@@ -12805,10 +12763,10 @@
         <v>54</v>
       </c>
       <c r="D287" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E287">
-        <f>VLOOKUP(C287, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C287, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F287">
@@ -12827,10 +12785,10 @@
         <v>54</v>
       </c>
       <c r="D288" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E288">
-        <f>VLOOKUP(C288, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C288, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F288">
@@ -12849,10 +12807,10 @@
         <v>54</v>
       </c>
       <c r="D289" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E289">
-        <f>VLOOKUP(C289, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C289, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F289">
@@ -12871,10 +12829,10 @@
         <v>54</v>
       </c>
       <c r="D290" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E290">
-        <f>VLOOKUP(C290, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C290, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F290">
@@ -12893,10 +12851,10 @@
         <v>54</v>
       </c>
       <c r="D291" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E291">
-        <f>VLOOKUP(C291, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C291, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F291">
@@ -12915,10 +12873,10 @@
         <v>54</v>
       </c>
       <c r="D292" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E292">
-        <f>VLOOKUP(C292, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C292, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F292">
@@ -12937,10 +12895,10 @@
         <v>55</v>
       </c>
       <c r="D293" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E293">
-        <f>VLOOKUP(C293, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C293, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F293">
@@ -12959,10 +12917,10 @@
         <v>55</v>
       </c>
       <c r="D294" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E294">
-        <f>VLOOKUP(C294, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C294, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F294">
@@ -12981,10 +12939,10 @@
         <v>55</v>
       </c>
       <c r="D295" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E295">
-        <f>VLOOKUP(C295, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C295, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F295">
@@ -13003,10 +12961,10 @@
         <v>55</v>
       </c>
       <c r="D296" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E296">
-        <f>VLOOKUP(C296, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C296, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F296">
@@ -13025,10 +12983,10 @@
         <v>55</v>
       </c>
       <c r="D297" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E297">
-        <f>VLOOKUP(C297, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C297, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F297">
@@ -13047,10 +13005,10 @@
         <v>55</v>
       </c>
       <c r="D298" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E298">
-        <f>VLOOKUP(C298, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C298, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F298">
@@ -13069,10 +13027,10 @@
         <v>55</v>
       </c>
       <c r="D299" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E299">
-        <f>VLOOKUP(C299, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C299, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F299">
@@ -13091,10 +13049,10 @@
         <v>55</v>
       </c>
       <c r="D300" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E300">
-        <f>VLOOKUP(C300, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C300, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F300">
@@ -13113,15 +13071,15 @@
         <v>56</v>
       </c>
       <c r="D301" t="s">
-        <v>153</v>
-      </c>
-      <c r="E301">
-        <f>VLOOKUP(C301, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F301">
+        <v>152</v>
+      </c>
+      <c r="E301" t="e">
+        <f>VLOOKUP(C301, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F301" t="e">
         <f t="shared" si="4"/>
-        <v>7188</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -13135,15 +13093,15 @@
         <v>56</v>
       </c>
       <c r="D302" t="s">
-        <v>154</v>
-      </c>
-      <c r="E302">
-        <f>VLOOKUP(C302, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F302">
+        <v>153</v>
+      </c>
+      <c r="E302" t="e">
+        <f>VLOOKUP(C302, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F302" t="e">
         <f t="shared" si="4"/>
-        <v>908</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -13157,15 +13115,15 @@
         <v>56</v>
       </c>
       <c r="D303" t="s">
-        <v>155</v>
-      </c>
-      <c r="E303">
-        <f>VLOOKUP(C303, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F303">
+        <v>154</v>
+      </c>
+      <c r="E303" t="e">
+        <f>VLOOKUP(C303, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F303" t="e">
         <f t="shared" si="4"/>
-        <v>285</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -13179,15 +13137,15 @@
         <v>56</v>
       </c>
       <c r="D304" t="s">
-        <v>156</v>
-      </c>
-      <c r="E304">
-        <f>VLOOKUP(C304, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F304">
+        <v>155</v>
+      </c>
+      <c r="E304" t="e">
+        <f>VLOOKUP(C304, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F304" t="e">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -13201,15 +13159,15 @@
         <v>56</v>
       </c>
       <c r="D305" t="s">
-        <v>157</v>
-      </c>
-      <c r="E305">
-        <f>VLOOKUP(C305, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F305">
+        <v>156</v>
+      </c>
+      <c r="E305" t="e">
+        <f>VLOOKUP(C305, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F305" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -13223,15 +13181,15 @@
         <v>56</v>
       </c>
       <c r="D306" t="s">
-        <v>158</v>
-      </c>
-      <c r="E306">
-        <f>VLOOKUP(C306, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F306">
+        <v>157</v>
+      </c>
+      <c r="E306" t="e">
+        <f>VLOOKUP(C306, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F306" t="e">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -13245,15 +13203,15 @@
         <v>56</v>
       </c>
       <c r="D307" t="s">
-        <v>159</v>
-      </c>
-      <c r="E307">
-        <f>VLOOKUP(C307, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F307">
+        <v>158</v>
+      </c>
+      <c r="E307" t="e">
+        <f>VLOOKUP(C307, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F307" t="e">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -13267,10 +13225,10 @@
         <v>58</v>
       </c>
       <c r="D308" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E308">
-        <f>VLOOKUP(C308, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C308, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F308">
@@ -13289,10 +13247,10 @@
         <v>58</v>
       </c>
       <c r="D309" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E309">
-        <f>VLOOKUP(C309, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C309, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F309">
@@ -13311,10 +13269,10 @@
         <v>58</v>
       </c>
       <c r="D310" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E310">
-        <f>VLOOKUP(C310, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C310, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F310">
@@ -13333,10 +13291,10 @@
         <v>58</v>
       </c>
       <c r="D311" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E311">
-        <f>VLOOKUP(C311, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C311, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F311">
@@ -13355,10 +13313,10 @@
         <v>58</v>
       </c>
       <c r="D312" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E312">
-        <f>VLOOKUP(C312, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C312, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F312">
@@ -13377,10 +13335,10 @@
         <v>58</v>
       </c>
       <c r="D313" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E313">
-        <f>VLOOKUP(C313, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C313, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F313">
@@ -13399,10 +13357,10 @@
         <v>58</v>
       </c>
       <c r="D314" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E314">
-        <f>VLOOKUP(C314, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C314, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F314">
@@ -13421,10 +13379,10 @@
         <v>58</v>
       </c>
       <c r="D315" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E315">
-        <f>VLOOKUP(C315, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C315, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F315">
@@ -13443,10 +13401,10 @@
         <v>59</v>
       </c>
       <c r="D316" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E316">
-        <f>VLOOKUP(C316, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C316, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F316">
@@ -13465,10 +13423,10 @@
         <v>59</v>
       </c>
       <c r="D317" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E317">
-        <f>VLOOKUP(C317, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C317, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F317">
@@ -13487,10 +13445,10 @@
         <v>59</v>
       </c>
       <c r="D318" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E318">
-        <f>VLOOKUP(C318, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C318, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F318">
@@ -13509,10 +13467,10 @@
         <v>59</v>
       </c>
       <c r="D319" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E319">
-        <f>VLOOKUP(C319, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C319, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F319">
@@ -13531,10 +13489,10 @@
         <v>59</v>
       </c>
       <c r="D320" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E320">
-        <f>VLOOKUP(C320, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C320, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F320">
@@ -13553,10 +13511,10 @@
         <v>59</v>
       </c>
       <c r="D321" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E321">
-        <f>VLOOKUP(C321, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C321, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F321">
@@ -13575,10 +13533,10 @@
         <v>59</v>
       </c>
       <c r="D322" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E322">
-        <f>VLOOKUP(C322, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C322, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F322">
@@ -13597,10 +13555,10 @@
         <v>59</v>
       </c>
       <c r="D323" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E323">
-        <f>VLOOKUP(C323, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C323, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F323">
@@ -13619,10 +13577,10 @@
         <v>60</v>
       </c>
       <c r="D324" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E324">
-        <f>VLOOKUP(C324, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C324, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F324">
@@ -13641,10 +13599,10 @@
         <v>60</v>
       </c>
       <c r="D325" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E325">
-        <f>VLOOKUP(C325, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C325, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F325">
@@ -13663,10 +13621,10 @@
         <v>60</v>
       </c>
       <c r="D326" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E326">
-        <f>VLOOKUP(C326, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C326, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F326">
@@ -13685,10 +13643,10 @@
         <v>60</v>
       </c>
       <c r="D327" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E327">
-        <f>VLOOKUP(C327, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C327, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F327">
@@ -13707,10 +13665,10 @@
         <v>60</v>
       </c>
       <c r="D328" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E328">
-        <f>VLOOKUP(C328, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C328, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F328">
@@ -13729,10 +13687,10 @@
         <v>60</v>
       </c>
       <c r="D329" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E329">
-        <f>VLOOKUP(C329, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C329, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F329">
@@ -13751,10 +13709,10 @@
         <v>61</v>
       </c>
       <c r="D330" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E330">
-        <f>VLOOKUP(C330, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C330, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F330">
@@ -13773,10 +13731,10 @@
         <v>61</v>
       </c>
       <c r="D331" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E331">
-        <f>VLOOKUP(C331, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C331, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F331">
@@ -13795,10 +13753,10 @@
         <v>61</v>
       </c>
       <c r="D332" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E332">
-        <f>VLOOKUP(C332, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C332, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F332">
@@ -13817,10 +13775,10 @@
         <v>61</v>
       </c>
       <c r="D333" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E333">
-        <f>VLOOKUP(C333, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C333, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F333">
@@ -13839,10 +13797,10 @@
         <v>61</v>
       </c>
       <c r="D334" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E334">
-        <f>VLOOKUP(C334, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C334, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F334">
@@ -13861,10 +13819,10 @@
         <v>61</v>
       </c>
       <c r="D335" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E335">
-        <f>VLOOKUP(C335, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C335, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F335">
@@ -13883,10 +13841,10 @@
         <v>63</v>
       </c>
       <c r="D336" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E336">
-        <f>VLOOKUP(C336, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C336, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F336">
@@ -13905,10 +13863,10 @@
         <v>63</v>
       </c>
       <c r="D337" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E337">
-        <f>VLOOKUP(C337, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C337, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F337">
@@ -13927,10 +13885,10 @@
         <v>63</v>
       </c>
       <c r="D338" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E338">
-        <f>VLOOKUP(C338, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C338, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F338">
@@ -13949,10 +13907,10 @@
         <v>63</v>
       </c>
       <c r="D339" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E339">
-        <f>VLOOKUP(C339, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C339, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F339">
@@ -13971,10 +13929,10 @@
         <v>63</v>
       </c>
       <c r="D340" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E340">
-        <f>VLOOKUP(C340, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C340, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F340">
@@ -13993,10 +13951,10 @@
         <v>63</v>
       </c>
       <c r="D341" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E341">
-        <f>VLOOKUP(C341, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C341, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F341">
@@ -14015,10 +13973,10 @@
         <v>63</v>
       </c>
       <c r="D342" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E342">
-        <f>VLOOKUP(C342, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C342, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F342">
@@ -14037,10 +13995,10 @@
         <v>63</v>
       </c>
       <c r="D343" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E343">
-        <f>VLOOKUP(C343, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C343, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F343">
@@ -14059,10 +14017,10 @@
         <v>64</v>
       </c>
       <c r="D344" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E344">
-        <f>VLOOKUP(C344, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C344, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F344">
@@ -14081,10 +14039,10 @@
         <v>64</v>
       </c>
       <c r="D345" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E345">
-        <f>VLOOKUP(C345, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C345, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F345">
@@ -14103,10 +14061,10 @@
         <v>64</v>
       </c>
       <c r="D346" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E346">
-        <f>VLOOKUP(C346, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C346, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F346">
@@ -14125,10 +14083,10 @@
         <v>64</v>
       </c>
       <c r="D347" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E347">
-        <f>VLOOKUP(C347, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C347, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F347">
@@ -14147,10 +14105,10 @@
         <v>64</v>
       </c>
       <c r="D348" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E348">
-        <f>VLOOKUP(C348, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C348, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F348">
@@ -14169,10 +14127,10 @@
         <v>64</v>
       </c>
       <c r="D349" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E349">
-        <f>VLOOKUP(C349, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C349, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F349">
@@ -14191,10 +14149,10 @@
         <v>64</v>
       </c>
       <c r="D350" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E350">
-        <f>VLOOKUP(C350, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C350, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F350">
@@ -14213,10 +14171,10 @@
         <v>64</v>
       </c>
       <c r="D351" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E351">
-        <f>VLOOKUP(C351, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C351, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F351">
@@ -14235,10 +14193,10 @@
         <v>65</v>
       </c>
       <c r="D352" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E352">
-        <f>VLOOKUP(C352, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C352, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F352">
@@ -14257,10 +14215,10 @@
         <v>65</v>
       </c>
       <c r="D353" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E353">
-        <f>VLOOKUP(C353, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C353, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F353">
@@ -14279,10 +14237,10 @@
         <v>65</v>
       </c>
       <c r="D354" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E354">
-        <f>VLOOKUP(C354, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C354, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F354">
@@ -14301,10 +14259,10 @@
         <v>65</v>
       </c>
       <c r="D355" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E355">
-        <f>VLOOKUP(C355, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C355, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F355">
@@ -14323,10 +14281,10 @@
         <v>65</v>
       </c>
       <c r="D356" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E356">
-        <f>VLOOKUP(C356, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C356, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F356">
@@ -14345,10 +14303,10 @@
         <v>65</v>
       </c>
       <c r="D357" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E357">
-        <f>VLOOKUP(C357, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C357, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F357">
@@ -14367,10 +14325,10 @@
         <v>65</v>
       </c>
       <c r="D358" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E358">
-        <f>VLOOKUP(C358, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C358, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F358">
@@ -14389,10 +14347,10 @@
         <v>65</v>
       </c>
       <c r="D359" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E359">
-        <f>VLOOKUP(C359, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C359, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F359">
@@ -14411,10 +14369,10 @@
         <v>66</v>
       </c>
       <c r="D360" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E360">
-        <f>VLOOKUP(C360, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C360, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F360">
@@ -14433,10 +14391,10 @@
         <v>66</v>
       </c>
       <c r="D361" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E361">
-        <f>VLOOKUP(C361, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C361, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F361">
@@ -14455,10 +14413,10 @@
         <v>66</v>
       </c>
       <c r="D362" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E362">
-        <f>VLOOKUP(C362, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C362, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F362">
@@ -14477,10 +14435,10 @@
         <v>66</v>
       </c>
       <c r="D363" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E363">
-        <f>VLOOKUP(C363, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C363, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F363">
@@ -14499,10 +14457,10 @@
         <v>66</v>
       </c>
       <c r="D364" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E364">
-        <f>VLOOKUP(C364, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C364, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F364">
@@ -14521,10 +14479,10 @@
         <v>66</v>
       </c>
       <c r="D365" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E365">
-        <f>VLOOKUP(C365, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C365, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F365">
@@ -14543,10 +14501,10 @@
         <v>66</v>
       </c>
       <c r="D366" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E366">
-        <f>VLOOKUP(C366, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C366, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F366">
@@ -14565,10 +14523,10 @@
         <v>66</v>
       </c>
       <c r="D367" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E367">
-        <f>VLOOKUP(C367, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C367, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F367">
@@ -14587,10 +14545,10 @@
         <v>68</v>
       </c>
       <c r="D368" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E368">
-        <f>VLOOKUP(C368, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C368, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F368">
@@ -14609,10 +14567,10 @@
         <v>68</v>
       </c>
       <c r="D369" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E369">
-        <f>VLOOKUP(C369, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C369, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F369">
@@ -14631,10 +14589,10 @@
         <v>68</v>
       </c>
       <c r="D370" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E370">
-        <f>VLOOKUP(C370, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C370, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F370">
@@ -14653,10 +14611,10 @@
         <v>68</v>
       </c>
       <c r="D371" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E371">
-        <f>VLOOKUP(C371, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C371, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F371">
@@ -14675,10 +14633,10 @@
         <v>68</v>
       </c>
       <c r="D372" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E372">
-        <f>VLOOKUP(C372, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C372, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F372">
@@ -14697,10 +14655,10 @@
         <v>68</v>
       </c>
       <c r="D373" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E373">
-        <f>VLOOKUP(C373, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C373, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F373">
@@ -14719,10 +14677,10 @@
         <v>68</v>
       </c>
       <c r="D374" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E374">
-        <f>VLOOKUP(C374, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C374, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F374">
@@ -14741,10 +14699,10 @@
         <v>68</v>
       </c>
       <c r="D375" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E375">
-        <f>VLOOKUP(C375, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C375, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F375">
@@ -14763,10 +14721,10 @@
         <v>69</v>
       </c>
       <c r="D376" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E376">
-        <f>VLOOKUP(C376, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C376, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F376">
@@ -14785,10 +14743,10 @@
         <v>69</v>
       </c>
       <c r="D377" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E377">
-        <f>VLOOKUP(C377, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C377, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F377">
@@ -14807,10 +14765,10 @@
         <v>69</v>
       </c>
       <c r="D378" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E378">
-        <f>VLOOKUP(C378, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C378, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F378">
@@ -14829,10 +14787,10 @@
         <v>69</v>
       </c>
       <c r="D379" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E379">
-        <f>VLOOKUP(C379, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C379, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F379">
@@ -14851,10 +14809,10 @@
         <v>69</v>
       </c>
       <c r="D380" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E380">
-        <f>VLOOKUP(C380, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C380, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F380">
@@ -14873,10 +14831,10 @@
         <v>69</v>
       </c>
       <c r="D381" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E381">
-        <f>VLOOKUP(C381, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C381, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F381">
@@ -14895,10 +14853,10 @@
         <v>69</v>
       </c>
       <c r="D382" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E382">
-        <f>VLOOKUP(C382, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C382, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F382">
@@ -14917,10 +14875,10 @@
         <v>69</v>
       </c>
       <c r="D383" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E383">
-        <f>VLOOKUP(C383, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C383, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F383">
@@ -14939,10 +14897,10 @@
         <v>70</v>
       </c>
       <c r="D384" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E384">
-        <f>VLOOKUP(C384, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C384, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F384">
@@ -14961,10 +14919,10 @@
         <v>70</v>
       </c>
       <c r="D385" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E385">
-        <f>VLOOKUP(C385, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C385, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F385">
@@ -14983,10 +14941,10 @@
         <v>70</v>
       </c>
       <c r="D386" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E386">
-        <f>VLOOKUP(C386, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C386, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F386">
@@ -15005,10 +14963,10 @@
         <v>70</v>
       </c>
       <c r="D387" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E387">
-        <f>VLOOKUP(C387, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C387, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F387">
@@ -15027,10 +14985,10 @@
         <v>70</v>
       </c>
       <c r="D388" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E388">
-        <f>VLOOKUP(C388, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C388, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F388">
@@ -15049,10 +15007,10 @@
         <v>70</v>
       </c>
       <c r="D389" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E389">
-        <f>VLOOKUP(C389, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C389, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F389">
@@ -15071,10 +15029,10 @@
         <v>70</v>
       </c>
       <c r="D390" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E390">
-        <f>VLOOKUP(C390, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C390, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F390">
@@ -15093,10 +15051,10 @@
         <v>70</v>
       </c>
       <c r="D391" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E391">
-        <f>VLOOKUP(C391, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C391, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F391">
@@ -15115,10 +15073,10 @@
         <v>5</v>
       </c>
       <c r="D392" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E392">
-        <f>VLOOKUP(C392, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C392, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F392">
@@ -15137,10 +15095,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E393">
-        <f>VLOOKUP(C393, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C393, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F393">
@@ -15159,10 +15117,10 @@
         <v>7</v>
       </c>
       <c r="D394" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E394">
-        <f>VLOOKUP(C394, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C394, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F394">
@@ -15181,10 +15139,10 @@
         <v>27</v>
       </c>
       <c r="D395" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E395">
-        <f>VLOOKUP(C395, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C395, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F395">
@@ -15203,10 +15161,10 @@
         <v>28</v>
       </c>
       <c r="D396" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E396">
-        <f>VLOOKUP(C396, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C396, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F396">
@@ -15225,10 +15183,10 @@
         <v>29</v>
       </c>
       <c r="D397" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E397">
-        <f>VLOOKUP(C397, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C397, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F397">
@@ -15247,10 +15205,10 @@
         <v>30</v>
       </c>
       <c r="D398" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E398">
-        <f>VLOOKUP(C398, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C398, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F398">
@@ -15269,10 +15227,10 @@
         <v>31</v>
       </c>
       <c r="D399" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E399">
-        <f>VLOOKUP(C399, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C399, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F399">
@@ -15291,10 +15249,10 @@
         <v>9</v>
       </c>
       <c r="D400" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E400">
-        <f>VLOOKUP(C400, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C400, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F400">
@@ -15310,13 +15268,13 @@
         <v>17427</v>
       </c>
       <c r="C401" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D401" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E401">
-        <f>VLOOKUP(C401, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C401, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F401">
@@ -15335,10 +15293,10 @@
         <v>11</v>
       </c>
       <c r="D402" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E402">
-        <f>VLOOKUP(C402, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C402, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F402">
@@ -15357,10 +15315,10 @@
         <v>12</v>
       </c>
       <c r="D403" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E403">
-        <f>VLOOKUP(C403, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C403, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F403">
@@ -15379,10 +15337,10 @@
         <v>13</v>
       </c>
       <c r="D404" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E404">
-        <f>VLOOKUP(C404, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C404, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F404">
@@ -15401,10 +15359,10 @@
         <v>15</v>
       </c>
       <c r="D405" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E405">
-        <f>VLOOKUP(C405, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C405, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F405">
@@ -15423,10 +15381,10 @@
         <v>16</v>
       </c>
       <c r="D406" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E406">
-        <f>VLOOKUP(C406, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C406, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F406">
@@ -15445,10 +15403,10 @@
         <v>17</v>
       </c>
       <c r="D407" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E407">
-        <f>VLOOKUP(C407, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C407, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F407">
@@ -15467,10 +15425,10 @@
         <v>19</v>
       </c>
       <c r="D408" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E408">
-        <f>VLOOKUP(C408, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C408, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F408">
@@ -15489,10 +15447,10 @@
         <v>20</v>
       </c>
       <c r="D409" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E409">
-        <f>VLOOKUP(C409, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C409, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F409">
@@ -15511,10 +15469,10 @@
         <v>21</v>
       </c>
       <c r="D410" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E410">
-        <f>VLOOKUP(C410, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C410, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F410">
@@ -15533,10 +15491,10 @@
         <v>23</v>
       </c>
       <c r="D411" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E411">
-        <f>VLOOKUP(C411, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C411, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F411">
@@ -15555,10 +15513,10 @@
         <v>24</v>
       </c>
       <c r="D412" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E412">
-        <f>VLOOKUP(C412, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C412, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F412">
@@ -15577,15 +15535,15 @@
         <v>33</v>
       </c>
       <c r="D413" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E413">
-        <f>VLOOKUP(C413, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C413, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F413">
         <f t="shared" si="7"/>
-        <v>1258081</v>
+        <v>125808</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -15599,15 +15557,15 @@
         <v>34</v>
       </c>
       <c r="D414" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E414">
-        <f>VLOOKUP(C414, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C414, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F414">
         <f t="shared" si="7"/>
-        <v>138793</v>
+        <v>13879</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -15621,10 +15579,10 @@
         <v>35</v>
       </c>
       <c r="D415" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E415">
-        <f>VLOOKUP(C415, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C415, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F415">
@@ -15643,10 +15601,10 @@
         <v>36</v>
       </c>
       <c r="D416" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E416">
-        <f>VLOOKUP(C416, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C416, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F416">
@@ -15665,10 +15623,10 @@
         <v>37</v>
       </c>
       <c r="D417" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E417">
-        <f>VLOOKUP(C417, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C417, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F417">
@@ -15687,10 +15645,10 @@
         <v>39</v>
       </c>
       <c r="D418" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E418">
-        <f>VLOOKUP(C418, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C418, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F418">
@@ -15709,10 +15667,10 @@
         <v>40</v>
       </c>
       <c r="D419" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E419">
-        <f>VLOOKUP(C419, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C419, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F419">
@@ -15731,10 +15689,10 @@
         <v>42</v>
       </c>
       <c r="D420" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E420">
-        <f>VLOOKUP(C420, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C420, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F420">
@@ -15753,10 +15711,10 @@
         <v>43</v>
       </c>
       <c r="D421" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E421">
-        <f>VLOOKUP(C421, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C421, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F421">
@@ -15775,10 +15733,10 @@
         <v>46</v>
       </c>
       <c r="D422" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E422">
-        <f>VLOOKUP(C422, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C422, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F422">
@@ -15797,10 +15755,10 @@
         <v>47</v>
       </c>
       <c r="D423" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E423">
-        <f>VLOOKUP(C423, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C423, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F423">
@@ -15819,10 +15777,10 @@
         <v>48</v>
       </c>
       <c r="D424" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E424">
-        <f>VLOOKUP(C424, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C424, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F424">
@@ -15841,10 +15799,10 @@
         <v>51</v>
       </c>
       <c r="D425" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E425">
-        <f>VLOOKUP(C425, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C425, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F425">
@@ -15863,10 +15821,10 @@
         <v>52</v>
       </c>
       <c r="D426" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E426">
-        <f>VLOOKUP(C426, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C426, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F426">
@@ -15885,10 +15843,10 @@
         <v>53</v>
       </c>
       <c r="D427" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E427">
-        <f>VLOOKUP(C427, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C427, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F427">
@@ -15907,10 +15865,10 @@
         <v>54</v>
       </c>
       <c r="D428" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E428">
-        <f>VLOOKUP(C428, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C428, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F428">
@@ -15929,10 +15887,10 @@
         <v>55</v>
       </c>
       <c r="D429" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E429">
-        <f>VLOOKUP(C429, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C429, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F429">
@@ -15951,15 +15909,15 @@
         <v>56</v>
       </c>
       <c r="D430" t="s">
-        <v>160</v>
-      </c>
-      <c r="E430">
-        <f>VLOOKUP(C430, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F430">
+        <v>159</v>
+      </c>
+      <c r="E430" t="e">
+        <f>VLOOKUP(C430, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F430" t="e">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -15973,10 +15931,10 @@
         <v>58</v>
       </c>
       <c r="D431" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E431">
-        <f>VLOOKUP(C431, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C431, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F431">
@@ -15995,10 +15953,10 @@
         <v>59</v>
       </c>
       <c r="D432" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E432">
-        <f>VLOOKUP(C432, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C432, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F432">
@@ -16017,10 +15975,10 @@
         <v>60</v>
       </c>
       <c r="D433" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E433">
-        <f>VLOOKUP(C433, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C433, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F433">
@@ -16039,10 +15997,10 @@
         <v>61</v>
       </c>
       <c r="D434" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E434">
-        <f>VLOOKUP(C434, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C434, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F434">
@@ -16061,10 +16019,10 @@
         <v>63</v>
       </c>
       <c r="D435" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E435">
-        <f>VLOOKUP(C435, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C435, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F435">
@@ -16083,10 +16041,10 @@
         <v>64</v>
       </c>
       <c r="D436" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E436">
-        <f>VLOOKUP(C436, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C436, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F436">
@@ -16105,10 +16063,10 @@
         <v>65</v>
       </c>
       <c r="D437" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E437">
-        <f>VLOOKUP(C437, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C437, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F437">
@@ -16127,10 +16085,10 @@
         <v>66</v>
       </c>
       <c r="D438" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E438">
-        <f>VLOOKUP(C438, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C438, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F438">
@@ -16149,10 +16107,10 @@
         <v>68</v>
       </c>
       <c r="D439" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E439">
-        <f>VLOOKUP(C439, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C439, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F439">
@@ -16171,10 +16129,10 @@
         <v>69</v>
       </c>
       <c r="D440" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E440">
-        <f>VLOOKUP(C440, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C440, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F440">
@@ -16193,10 +16151,10 @@
         <v>70</v>
       </c>
       <c r="D441" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E441">
-        <f>VLOOKUP(C441, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C441, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F441">
@@ -16213,7 +16171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BA5690-24F1-429B-8473-7C23A039C6B1}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F51"/>
     </sheetView>
   </sheetViews>
@@ -16225,22 +16183,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -16254,10 +16212,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(C2, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C2, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -16276,10 +16234,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(C3, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C3, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -16298,10 +16256,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(C4, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C4, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F4">
@@ -16320,10 +16278,10 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(C5, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C5, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F5">
@@ -16342,10 +16300,10 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(C6, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C6, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F6">
@@ -16364,10 +16322,10 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(C7, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C7, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F7">
@@ -16386,10 +16344,10 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(C8, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C8, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F8">
@@ -16408,10 +16366,10 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(C9, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C9, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F9">
@@ -16430,10 +16388,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(C10, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C10, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F10">
@@ -16449,13 +16407,13 @@
         <v>17427</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(C11, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C11, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F11">
@@ -16474,10 +16432,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(C12, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C12, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F12">
@@ -16496,10 +16454,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(C13, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C13, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.33</v>
       </c>
       <c r="F13">
@@ -16518,10 +16476,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(C14, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C14, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F14">
@@ -16540,10 +16498,10 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(C15, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C15, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F15">
@@ -16562,10 +16520,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(C16, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C16, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F16">
@@ -16584,10 +16542,10 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(C17, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C17, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F17">
@@ -16606,10 +16564,10 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(C18, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C18, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F18">
@@ -16628,10 +16586,10 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(C19, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C19, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F19">
@@ -16650,10 +16608,10 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(C20, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C20, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F20">
@@ -16672,10 +16630,10 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(C21, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C21, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F21">
@@ -16694,10 +16652,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(C22, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C22, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>8.9</v>
       </c>
       <c r="F22">
@@ -16716,15 +16674,15 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(C23, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C23, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>1258081</v>
+        <v>125808</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -16738,15 +16696,15 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP(C24, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>7.45</v>
+        <f>VLOOKUP(C24, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>0.745</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>138793</v>
+        <v>13879</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -16760,10 +16718,10 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(C25, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C25, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F25">
@@ -16782,10 +16740,10 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(C26, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C26, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F26">
@@ -16804,10 +16762,10 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(C27, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C27, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F27">
@@ -16826,10 +16784,10 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(C28, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C28, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F28">
@@ -16848,10 +16806,10 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP(C29, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C29, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F29">
@@ -16870,10 +16828,10 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(C30, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C30, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>7.89</v>
       </c>
       <c r="F30">
@@ -16892,10 +16850,10 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(C31, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C31, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F31">
@@ -16914,10 +16872,10 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32">
-        <f>VLOOKUP(C32, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C32, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F32">
@@ -16936,10 +16894,10 @@
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33">
-        <f>VLOOKUP(C33, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C33, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F33">
@@ -16958,10 +16916,10 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP(C34, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C34, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F34">
@@ -16980,10 +16938,10 @@
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35">
-        <f>VLOOKUP(C35, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C35, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F35">
@@ -17002,10 +16960,10 @@
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36">
-        <f>VLOOKUP(C36, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C36, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F36">
@@ -17024,10 +16982,10 @@
         <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37">
-        <f>VLOOKUP(C37, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C37, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F37">
@@ -17046,10 +17004,10 @@
         <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E38">
-        <f>VLOOKUP(C38, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C38, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F38">
@@ -17068,10 +17026,10 @@
         <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E39">
-        <f>VLOOKUP(C39, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C39, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F39">
@@ -17090,15 +17048,15 @@
         <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40">
-        <f>VLOOKUP(C40, Data!$D$2:$K$63, 8, FALSE)</f>
-        <v>6.35</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>159</v>
+      </c>
+      <c r="E40" t="e">
+        <f>VLOOKUP(C40, Data!$D$2:$K$62, 8, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F40" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -17112,10 +17070,10 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E41">
-        <f>VLOOKUP(C41, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C41, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F41">
@@ -17134,10 +17092,10 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42">
-        <f>VLOOKUP(C42, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C42, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F42">
@@ -17156,10 +17114,10 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E43">
-        <f>VLOOKUP(C43, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C43, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F43">
@@ -17178,10 +17136,10 @@
         <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44">
-        <f>VLOOKUP(C44, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C44, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F44">
@@ -17200,10 +17158,10 @@
         <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E45">
-        <f>VLOOKUP(C45, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C45, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F45">
@@ -17222,10 +17180,10 @@
         <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E46">
-        <f>VLOOKUP(C46, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C46, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F46">
@@ -17244,10 +17202,10 @@
         <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E47">
-        <f>VLOOKUP(C47, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C47, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F47">
@@ -17266,10 +17224,10 @@
         <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48">
-        <f>VLOOKUP(C48, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C48, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F48">
@@ -17288,10 +17246,10 @@
         <v>68</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E49">
-        <f>VLOOKUP(C49, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C49, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F49">
@@ -17310,10 +17268,10 @@
         <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50">
-        <f>VLOOKUP(C50, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C50, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>6.35</v>
       </c>
       <c r="F50">
@@ -17332,10 +17290,10 @@
         <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51">
-        <f>VLOOKUP(C51, Data!$D$2:$K$63, 8, FALSE)</f>
+        <f>VLOOKUP(C51, Data!$D$2:$K$62, 8, FALSE)</f>
         <v>1</v>
       </c>
       <c r="F51">

--- a/data/OI_product_map - Copy.xlsx
+++ b/data/OI_product_map - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D8BF238-321E-40DF-9276-9DE401C74847}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="8_{A4D98350-709A-462B-87D2-DA567DEA5457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1CE218E-724D-494D-8ACE-A6C7CD724C5E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{542C41B4-5129-4961-BD89-52D58DBA0F0A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="171">
   <si>
     <t>Product Family</t>
   </si>
@@ -539,6 +539,27 @@
   </si>
   <si>
     <t>HO Futures</t>
+  </si>
+  <si>
+    <t>Crude</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>Brent Crude Futures</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>WTI Crude Futures</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1421,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CDFA64-99A4-40E4-9BAE-6970E7183312}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23CDFA64-99A4-40E4-9BAE-6970E7183312}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1956,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A59FE1-DE17-4881-8BC1-F91F83F8F9F7}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,14 +2079,14 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C62" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
+        <f t="shared" ref="C3:C64" si="1">_xlfn.CONCAT("[",A3,"] ",B3)</f>
         <v>[Light] S92</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E62" si="2">_xlfn.CONCAT("'",D3,"',")</f>
+        <f t="shared" ref="E3:E64" si="2">_xlfn.CONCAT("'",D3,"',")</f>
         <v>'GDK',</v>
       </c>
       <c r="F3">
@@ -3353,7 +3374,7 @@
         <v>89</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:H62" si="4">_xlfn.CONCAT(D35," (",G35, ")")</f>
+        <f t="shared" ref="H35:H64" si="4">_xlfn.CONCAT(D35," (",G35, ")")</f>
         <v>BAQ (Jet Fuel Diff – Singapore Jet Kerosene Cargoes (Platts) vs Singapore Gasoil 10 ppm (Platts) Future)</v>
       </c>
       <c r="I35" t="str">
@@ -4446,6 +4467,82 @@
       </c>
       <c r="K62">
         <v>6.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>[Crude] Brent</v>
+      </c>
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>'BRN',</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>167</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="4"/>
+        <v>BRN (Brent Crude Futures)</v>
+      </c>
+      <c r="I63" t="s">
+        <v>138</v>
+      </c>
+      <c r="J63" t="s">
+        <v>127</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>[Crude] WTI</v>
+      </c>
+      <c r="D64" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="2"/>
+        <v>'WBS',</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="4"/>
+        <v>WBS (WTI Crude Futures)</v>
+      </c>
+      <c r="I64" t="s">
+        <v>138</v>
+      </c>
+      <c r="J64" t="s">
+        <v>127</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
